--- a/inst/extdata/phyto/more/phyto2.xlsx
+++ b/inst/extdata/phyto/more/phyto2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanamies-galonski/Code/nrp/nrp/inst/extdata/phyto/untitled folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanamies-galonski/Code/nrp/nrp/inst/extdata/phyto/more/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D48E64-DE4E-034D-9E89-46F3129C0FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDE6C3B-7649-B948-BE8E-8A3D999C91D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="760" windowWidth="30260" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="51">
   <si>
     <t>Samp_Date</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Biovolume (mm3/L)</t>
+  </si>
+  <si>
+    <t>AR-12</t>
   </si>
 </sst>
 </file>
@@ -579,7 +582,7 @@
   <dimension ref="A1:J179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -636,7 +639,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
